--- a/generalRGBmod/Main-PCB/v1/BOM_n64rgbv1.xlsx
+++ b/generalRGBmod/Main-PCB/v1/BOM_n64rgbv1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Peter\Documents\Workspaces\Git\N64RGB\generalRGBmod\Main-PCB\v1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/ToshibaHDWM110/borti4938/Documents/Workspaces/Git/N64RGB/generalRGBmod/Main-PCB/v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14445" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MaxV Setup" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="118">
   <si>
     <t>Designator</t>
   </si>
@@ -351,9 +351,6 @@
     <t>SMD1206/SMD0805</t>
   </si>
   <si>
-    <t>Alternative to 5M570ZT100 with less Les, leave J1 open</t>
-  </si>
-  <si>
     <t>Close J1</t>
   </si>
   <si>
@@ -378,13 +375,19 @@
     <t>These components are for MaxV setup only!!! Leave them free.</t>
   </si>
   <si>
-    <t>Alternative to EPM570T100 with less Les, leave J1 open</t>
+    <t>Formerly FB2 was J1 (version 5M_20171211 and earlier)</t>
+  </si>
+  <si>
+    <t>Alternative to 5M570ZT100 with less Les, leave J1 open (at version 5M_20171211 and earlier, J1 was not present here)</t>
+  </si>
+  <si>
+    <t>Alternative to EPM570T100 with less Les, leave J1 open (at version 5M_20171211 and earlier, J1 was not present here)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -929,17 +932,17 @@
     <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Link" xfId="42" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
     <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1225,22 +1228,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="59.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="59.83203125" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1263,13 +1266,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1286,12 +1289,12 @@
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>18</v>
       </c>
@@ -1302,12 +1305,12 @@
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
@@ -1328,7 +1331,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
         <v>25</v>
@@ -1347,7 +1350,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>29</v>
       </c>
@@ -1368,7 +1371,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1379,7 +1382,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1390,7 +1393,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>34</v>
       </c>
@@ -1403,7 +1406,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1425,7 +1428,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>40</v>
       </c>
@@ -1441,7 +1444,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -1463,7 +1466,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>39</v>
       </c>
@@ -1479,23 +1482,23 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>65</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -1507,12 +1510,12 @@
         <v>62</v>
       </c>
       <c r="F18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -1534,7 +1537,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -1556,7 +1559,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -1581,9 +1584,9 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B22" t="s">
         <v>64</v>
@@ -1603,7 +1606,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -1625,7 +1628,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>52</v>
       </c>
@@ -1644,7 +1647,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -1666,7 +1669,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>67</v>
       </c>
@@ -1688,7 +1691,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>68</v>
       </c>
@@ -1710,7 +1713,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -1732,7 +1735,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -1754,7 +1757,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>79</v>
       </c>
@@ -1768,7 +1771,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -1790,7 +1793,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -1813,7 +1816,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -1836,7 +1839,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>82</v>
       </c>
@@ -1861,7 +1864,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>84</v>
       </c>
@@ -1880,103 +1883,110 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>104</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>105</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>115</v>
+      </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B43" s="2"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="2"/>
-      <c r="E44" s="3"/>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
+      <c r="E45" s="3"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E46" s="3"/>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B46" s="2"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E47" s="3"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E48" s="3"/>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E49" s="3"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="5"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E50" s="3"/>
       <c r="G50" s="2"/>
       <c r="H50" s="4"/>
-      <c r="I50" s="1"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E51" s="3"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B55" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="A41:G41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -1988,19 +1998,19 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="59.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="59.83203125" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2023,13 +2033,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2046,12 +2056,12 @@
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>101</v>
       </c>
@@ -2062,12 +2072,12 @@
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
@@ -2088,7 +2098,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
         <v>25</v>
@@ -2107,7 +2117,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -2118,7 +2128,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>34</v>
       </c>
@@ -2131,7 +2141,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -2153,7 +2163,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>40</v>
       </c>
@@ -2169,7 +2179,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -2191,7 +2201,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>39</v>
       </c>
@@ -2207,7 +2217,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>105</v>
       </c>
@@ -2223,26 +2233,29 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
+      <c r="G14" t="s">
+        <v>115</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>65</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -2254,12 +2267,12 @@
         <v>62</v>
       </c>
       <c r="F17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -2281,7 +2294,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -2303,7 +2316,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -2328,7 +2341,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -2350,7 +2363,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>52</v>
       </c>
@@ -2369,7 +2382,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -2391,7 +2404,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -2413,7 +2426,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>68</v>
       </c>
@@ -2435,7 +2448,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -2457,7 +2470,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -2479,7 +2492,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>79</v>
       </c>
@@ -2493,7 +2506,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -2515,7 +2528,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>72</v>
       </c>
@@ -2538,7 +2551,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>73</v>
       </c>
@@ -2561,7 +2574,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>82</v>
       </c>
@@ -2586,7 +2599,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>84</v>
       </c>
@@ -2605,12 +2618,12 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G34" s="6"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>104</v>
       </c>
@@ -2618,22 +2631,22 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" t="s">
         <v>114</v>
-      </c>
-      <c r="B36" t="s">
-        <v>115</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>16</v>
       </c>
@@ -2646,60 +2659,60 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
       <c r="E42" s="3"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E44" s="3"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E46" s="3"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E47" s="3"/>
       <c r="G47" s="2"/>
       <c r="H47" s="4"/>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E48" s="3"/>
       <c r="G48" s="2"/>
       <c r="H48" s="4"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" s="1"/>
     </row>
   </sheetData>

--- a/generalRGBmod/Main-PCB/v1/BOM_n64rgbv1.xlsx
+++ b/generalRGBmod/Main-PCB/v1/BOM_n64rgbv1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/ToshibaHDWM110/borti4938/Documents/Workspaces/Git/N64RGB/generalRGBmod/Main-PCB/v1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\Bartmann\Documents\Workspaces\Git\n64rgb\generalRGBmod\Main-PCB\v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14445"/>
   </bookViews>
   <sheets>
     <sheet name="MaxV Setup" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="119">
   <si>
     <t>Designator</t>
   </si>
@@ -180,18 +180,9 @@
     <t>FBN10-FBN13</t>
   </si>
   <si>
-    <t>CAT16-47R0F4LF</t>
-  </si>
-  <si>
     <t>4x 47ohm (1%)</t>
   </si>
   <si>
-    <t>BLA31BD221SN4D</t>
-  </si>
-  <si>
-    <t>Alternative to 47ohm res. array</t>
-  </si>
-  <si>
     <t>C21</t>
   </si>
   <si>
@@ -279,12 +270,6 @@
     <t>RN20</t>
   </si>
   <si>
-    <t>CAT16-75R0F4LF</t>
-  </si>
-  <si>
-    <t>CAT16-39R0F4LF</t>
-  </si>
-  <si>
     <t>PAL cable setup</t>
   </si>
   <si>
@@ -294,12 +279,6 @@
     <t>Chip Resistor Array 1206</t>
   </si>
   <si>
-    <t>4x 220ohm (25%) DCR 0.35ohm</t>
-  </si>
-  <si>
-    <t>Ferrite Chip Bead Array 1206</t>
-  </si>
-  <si>
     <t>1kohm (1%)</t>
   </si>
   <si>
@@ -382,13 +361,70 @@
   </si>
   <si>
     <t>Alternative to EPM570T100 with less Les, leave J1 open (at version 5M_20171211 and earlier, J1 was not present here)</t>
+  </si>
+  <si>
+    <t>CAT16-39R0F4LF / CAY16-39R0F4LF</t>
+  </si>
+  <si>
+    <t>CAT16-75R0F4LF / CAY16-75R0F4LF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BK32164M121-T </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferrite Beads MULTILYR CHP </t>
+  </si>
+  <si>
+    <t>BD 120OHMS 25%</t>
+  </si>
+  <si>
+    <t>Use this if you have resistors at the RCP output</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Only use this if you </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">don't </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>have resistors at the RCP output</t>
+    </r>
+  </si>
+  <si>
+    <t>CAT16-47R0F4LF / CAY16-47R0F4LF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -542,6 +578,15 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -891,7 +936,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -904,6 +949,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -932,17 +984,17 @@
     <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Besuchter Link" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
+    <cellStyle name="Link" xfId="42" builtinId="8"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1230,20 +1282,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="7" max="7" width="59.83203125" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="59.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1266,13 +1316,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1289,12 +1339,12 @@
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>18</v>
       </c>
@@ -1305,12 +1355,12 @@
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
@@ -1331,7 +1381,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
         <v>25</v>
@@ -1350,7 +1400,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>29</v>
       </c>
@@ -1371,7 +1421,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1382,7 +1432,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1393,7 +1443,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>34</v>
       </c>
@@ -1406,7 +1456,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1423,12 +1473,12 @@
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>40</v>
       </c>
@@ -1436,7 +1486,7 @@
         <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G13" t="s">
         <v>42</v>
@@ -1444,7 +1494,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -1466,7 +1516,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>39</v>
       </c>
@@ -1482,23 +1532,23 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -1507,15 +1557,15 @@
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F18" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -1537,12 +1587,12 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1551,45 +1601,45 @@
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C21">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -1598,7 +1648,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
@@ -1606,53 +1656,56 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="C23">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F23" t="s">
         <v>8</v>
       </c>
+      <c r="G23" s="12" t="s">
+        <v>117</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" t="s">
+    <row r="24" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G24" t="s">
-        <v>53</v>
-      </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G24" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" s="14"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -1661,7 +1714,7 @@
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
@@ -1669,12 +1722,12 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C26" s="7">
         <v>1</v>
@@ -1683,7 +1736,7 @@
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
@@ -1691,12 +1744,12 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
@@ -1705,7 +1758,7 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
@@ -1713,12 +1766,12 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C28" s="7">
         <v>1</v>
@@ -1727,7 +1780,7 @@
         <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F28" t="s">
         <v>11</v>
@@ -1735,12 +1788,12 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
@@ -1749,7 +1802,7 @@
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F29" t="s">
         <v>11</v>
@@ -1757,13 +1810,13 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C30" s="7"/>
       <c r="E30" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
@@ -1771,21 +1824,21 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C31" s="7">
         <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E31" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F31" t="s">
         <v>8</v>
@@ -1793,21 +1846,21 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C32" s="8">
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E32" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F32" t="s">
         <v>8</v>
@@ -1816,12 +1869,12 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C33" s="7">
         <v>3</v>
@@ -1830,7 +1883,7 @@
         <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F33" t="s">
         <v>11</v>
@@ -1839,83 +1892,83 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="C34" s="7">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F34" t="s">
         <v>8</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="D35" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E35" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F35" t="s">
         <v>8</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>112</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>16</v>
       </c>
@@ -1928,60 +1981,60 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="E45" s="3"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E47" s="3"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E49" s="3"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E50" s="3"/>
       <c r="G50" s="2"/>
       <c r="H50" s="4"/>
       <c r="I50" s="5"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E51" s="3"/>
       <c r="G51" s="2"/>
       <c r="H51" s="4"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
     </row>
   </sheetData>
@@ -1997,20 +2050,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="7" max="7" width="59.83203125" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="59.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2033,18 +2084,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2056,14 +2107,14 @@
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -2072,12 +2123,12 @@
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
@@ -2098,7 +2149,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
         <v>25</v>
@@ -2117,7 +2168,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -2128,7 +2179,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>34</v>
       </c>
@@ -2141,7 +2192,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -2158,12 +2209,12 @@
         <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>40</v>
       </c>
@@ -2171,7 +2222,7 @@
         <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G11" t="s">
         <v>42</v>
@@ -2179,7 +2230,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -2201,7 +2252,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>39</v>
       </c>
@@ -2217,9 +2268,9 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
@@ -2234,28 +2285,28 @@
         <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -2264,15 +2315,15 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F17" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -2294,12 +2345,12 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2308,86 +2359,89 @@
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C20">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="C21">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
         <v>8</v>
       </c>
+      <c r="G21" s="12" t="s">
+        <v>117</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" t="s">
+    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G22" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" s="13"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
@@ -2396,7 +2450,7 @@
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
@@ -2404,12 +2458,12 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C24" s="7">
         <v>1</v>
@@ -2418,7 +2472,7 @@
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
@@ -2426,12 +2480,12 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -2440,7 +2494,7 @@
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
@@ -2448,12 +2502,12 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C26" s="7">
         <v>1</v>
@@ -2462,7 +2516,7 @@
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
@@ -2470,12 +2524,12 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
@@ -2484,7 +2538,7 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
@@ -2492,13 +2546,13 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C28" s="7"/>
       <c r="E28" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F28" t="s">
         <v>11</v>
@@ -2506,21 +2560,21 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C29" s="7">
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E29" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F29" t="s">
         <v>8</v>
@@ -2528,21 +2582,21 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C30" s="8">
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E30" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F30" t="s">
         <v>8</v>
@@ -2551,12 +2605,12 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C31" s="7">
         <v>3</v>
@@ -2565,7 +2619,7 @@
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
@@ -2574,79 +2628,79 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E32" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F32" t="s">
         <v>8</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E33" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F33" t="s">
         <v>8</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G34" s="6"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B36" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>16</v>
       </c>
@@ -2659,60 +2713,60 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="E42" s="3"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E44" s="3"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E46" s="3"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E47" s="3"/>
       <c r="G47" s="2"/>
       <c r="H47" s="4"/>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E48" s="3"/>
       <c r="G48" s="2"/>
       <c r="H48" s="4"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
     </row>
   </sheetData>

--- a/generalRGBmod/Main-PCB/v1/BOM_n64rgbv1.xlsx
+++ b/generalRGBmod/Main-PCB/v1/BOM_n64rgbv1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\Bartmann\Documents\Workspaces\Git\n64rgb\generalRGBmod\Main-PCB\v1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\Peter\Documents\Workspaces\Git\Mirror\n64rgb\generalRGBmod\Main-PCB\v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337B4426-5DE5-40D6-9748-D10618126C11}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14445"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MaxV Setup" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="125">
   <si>
     <t>Designator</t>
   </si>
@@ -81,9 +82,6 @@
     <t>MPNs are only suggestions! You can use equivalent components, too.</t>
   </si>
   <si>
-    <t>5M570ZT100C4N</t>
-  </si>
-  <si>
     <t xml:space="preserve">5M240ZT100C4N </t>
   </si>
   <si>
@@ -177,12 +175,6 @@
     <t>C0603C104K9R</t>
   </si>
   <si>
-    <t>FBN10-FBN13</t>
-  </si>
-  <si>
-    <t>4x 47ohm (1%)</t>
-  </si>
-  <si>
     <t>C21</t>
   </si>
   <si>
@@ -376,9 +368,6 @@
   </si>
   <si>
     <t>BD 120OHMS 25%</t>
-  </si>
-  <si>
-    <t>Use this if you have resistors at the RCP output</t>
   </si>
   <si>
     <r>
@@ -419,11 +408,41 @@
   <si>
     <t>CAT16-47R0F4LF / CAY16-47R0F4LF</t>
   </si>
+  <si>
+    <t>Use this if you have resistors at the RCP output, i.e. the flex cable adapter</t>
+  </si>
+  <si>
+    <t>Resistor Array (4x)</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>FBN10-FBN12</t>
+  </si>
+  <si>
+    <t>Flex Cable Adapter</t>
+  </si>
+  <si>
+    <t>More information under misc/RCP2Pads/README.md</t>
+  </si>
+  <si>
+    <t>RN1,RN2,RN3,RN4</t>
+  </si>
+  <si>
+    <t>Not marked on silkscreen</t>
+  </si>
+  <si>
+    <t>5M570ZT100C5N</t>
+  </si>
+  <si>
+    <t>Close J1, Alternative part: 5M570ZT100C4N</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -936,26 +955,18 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1279,189 +1290,165 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="59.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="59.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
       <c r="G5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="7"/>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" t="s">
         <v>14</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="7"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="6"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G9" s="3"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1470,85 +1457,85 @@
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
         <v>40</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" t="s">
         <v>41</v>
-      </c>
-      <c r="F13" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" t="s">
-        <v>42</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>62</v>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -1557,20 +1544,20 @@
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19">
         <v>11</v>
@@ -1579,7 +1566,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -1587,12 +1574,12 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1601,45 +1588,45 @@
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C21">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -1648,7 +1635,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
@@ -1656,65 +1643,65 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" t="s">
         <v>118</v>
       </c>
+      <c r="B23" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="C23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" t="s">
-        <v>50</v>
+        <v>111</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="F23" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="12" t="s">
-        <v>117</v>
+      <c r="G23" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="10" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="14"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="7">
+        <v>68</v>
+      </c>
+      <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
@@ -1722,21 +1709,21 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="7">
+        <v>69</v>
+      </c>
+      <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
@@ -1744,21 +1731,21 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="7">
+        <v>70</v>
+      </c>
+      <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
@@ -1766,21 +1753,21 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="7">
+        <v>71</v>
+      </c>
+      <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F28" t="s">
         <v>11</v>
@@ -1788,21 +1775,21 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="7">
+        <v>72</v>
+      </c>
+      <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F29" t="s">
         <v>11</v>
@@ -1810,13 +1797,12 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="E30" s="3" t="s">
-        <v>88</v>
+        <v>73</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
@@ -1824,21 +1810,21 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="7">
+        <v>74</v>
+      </c>
+      <c r="C31">
         <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E31" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F31" t="s">
         <v>8</v>
@@ -1846,200 +1832,233 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="8">
+        <v>75</v>
+      </c>
+      <c r="C32" s="4">
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E32" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F32" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="7"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="7">
+        <v>93</v>
+      </c>
+      <c r="C33">
         <v>3</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="7"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
         <v>79</v>
       </c>
-      <c r="B34" t="s">
-        <v>112</v>
-      </c>
-      <c r="C34" s="7">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>82</v>
-      </c>
       <c r="E34" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F34" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="6" t="s">
-        <v>81</v>
+      <c r="G34" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D35" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E35" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F35" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="6" t="s">
-        <v>80</v>
+      <c r="G35" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>97</v>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>98</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>105</v>
+        <v>95</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="3"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F42" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" t="s">
+        <v>122</v>
+      </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="2"/>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="2"/>
-      <c r="E45" s="3"/>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="2"/>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E47" s="3"/>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E48" s="2"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E49" s="3"/>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E50" s="3"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="5"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E51" s="3"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="4"/>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E50" s="2"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="1"/>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E52" s="2"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E53" s="2"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E54" s="2"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A41:G41"/>
+  <mergeCells count="2">
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="A41:B41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -2047,157 +2066,139 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="59.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="59.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="7"/>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" t="s">
         <v>14</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2206,107 +2207,107 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
         <v>40</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" t="s">
         <v>41</v>
-      </c>
-      <c r="F11" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" t="s">
-        <v>42</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>62</v>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -2315,20 +2316,20 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18">
         <v>11</v>
@@ -2337,7 +2338,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
@@ -2345,12 +2346,12 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2359,98 +2360,98 @@
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C20">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" t="s">
         <v>118</v>
       </c>
+      <c r="B21" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="C21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" t="s">
-        <v>50</v>
+        <v>111</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="F21" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="12" t="s">
-        <v>117</v>
+      <c r="G21" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="14"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="7">
+        <v>68</v>
+      </c>
+      <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
@@ -2458,21 +2459,21 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="7">
+        <v>69</v>
+      </c>
+      <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
@@ -2480,21 +2481,21 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="7">
+        <v>70</v>
+      </c>
+      <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
@@ -2502,21 +2503,21 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="7">
+        <v>71</v>
+      </c>
+      <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
@@ -2524,21 +2525,21 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="7">
+        <v>72</v>
+      </c>
+      <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
@@ -2546,13 +2547,12 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="E28" s="3" t="s">
-        <v>88</v>
+        <v>73</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="F28" t="s">
         <v>11</v>
@@ -2560,21 +2560,21 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="7">
+        <v>74</v>
+      </c>
+      <c r="C29">
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E29" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F29" t="s">
         <v>8</v>
@@ -2582,196 +2582,229 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="8">
+        <v>75</v>
+      </c>
+      <c r="C30" s="4">
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E30" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F30" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="7"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
-      </c>
-      <c r="C31" s="7">
+        <v>93</v>
+      </c>
+      <c r="C31">
         <v>3</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="7"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
         <v>79</v>
       </c>
-      <c r="B32" t="s">
-        <v>112</v>
-      </c>
-      <c r="C32" s="7">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>82</v>
-      </c>
       <c r="E32" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F32" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="6" t="s">
-        <v>81</v>
+      <c r="G32" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E33" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F33" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="6" t="s">
-        <v>80</v>
+      <c r="G33" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G34" s="6"/>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G34" s="3"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G35" s="6"/>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G35" s="3"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B36" t="s">
-        <v>107</v>
-      </c>
-      <c r="G36" s="6"/>
+        <v>104</v>
+      </c>
+      <c r="G36" s="3"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="3"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" t="s">
+        <v>122</v>
+      </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
-      <c r="E42" s="3"/>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="2"/>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E44" s="3"/>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E45" s="2"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E46" s="3"/>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E47" s="3"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="5"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E48" s="3"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="4"/>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E47" s="2"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="1"/>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E49" s="2"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E50" s="2"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E51" s="2"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B55" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A38:G38"/>
+  <mergeCells count="2">
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A38:B38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
